--- a/tool/mul_lan_snippets/config/excel/mul_lan.xlsx
+++ b/tool/mul_lan_snippets/config/excel/mul_lan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21465" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,10 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>*include;*import</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#include &lt;iostream&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -58,144 +54,148 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>*fun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>include</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>using</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>csharp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>csharp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>go</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前缀，即缩写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c++语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c#语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：除了ID，namedesc，prefix这几列外，其余列都是语言，会转成“列名.json"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>举例：cpp这一列，会转换成cpp.json，为了正常使用，需要放到vscode的snippets下。如C:\Users\gzxiejinchun\AppData\Roaming\Code\User\snippets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*import</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>定义函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*fun</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>int main()
 {
-    cout &lt;&lt; "Hello World"; 
+    cout &lt;&lt; "Hello World\r"; 
     return 0;
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prefix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>include</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>using</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>function</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>csharp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">def Main():
-    print("Hello World")
+    print("Hello World\r")
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>static void Main(string[] args)
 {
-        System.Console.WriteLine("Hello World");
+        System.Console.WriteLine("Hello World\r");
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>python</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>csharp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>go</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表示编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prefix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前缀，即缩写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c++语言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>python</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>python语言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c#语言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注：除了ID，namedesc，prefix这几列外，其余列都是语言，会转成“列名.json"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>举例：cpp这一列，会转换成cpp.json，为了正常使用，需要放到vscode的snippets下。如C:\Users\gzxiejinchun\AppData\Roaming\Code\User\snippets</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>str</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -527,7 +527,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -535,7 +535,8 @@
     <col min="3" max="3" width="23.375" customWidth="1"/>
     <col min="4" max="4" width="20.375" customWidth="1"/>
     <col min="5" max="5" width="23.75" customWidth="1"/>
-    <col min="6" max="7" width="36.375" customWidth="1"/>
+    <col min="6" max="6" width="36.375" customWidth="1"/>
+    <col min="7" max="7" width="39.25" customWidth="1"/>
     <col min="8" max="8" width="25.75" customWidth="1"/>
     <col min="9" max="9" width="27.875" customWidth="1"/>
   </cols>
@@ -545,51 +546,51 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -597,19 +598,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -617,19 +618,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
         <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
@@ -637,22 +638,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -677,68 +678,68 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/tool/mul_lan_snippets/config/excel/mul_lan.xlsx
+++ b/tool/mul_lan_snippets/config/excel/mul_lan.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="102">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,10 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>*using</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>using System;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -54,10 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>*fun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -66,18 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>include</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>using</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>function</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>desc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,10 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>go</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>java</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -167,14 +143,6 @@
   </si>
   <si>
     <t>str</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*import</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定义函数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -196,6 +164,314 @@
 {
         System.Console.WriteLine("Hello World\r");
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>markdown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用namespace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fimport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fusing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fstopwatch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System.Diagnostics.Stopwatch $1Stopwatch = new System.Diagnostics.Stopwatch();
+$1Stopwatch.Start();
+$1Stopwatch.Stop();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fclass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>块注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>块注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fblock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># ********************************************************************************
+# $1
+# ********************************************************************************</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#################### $1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>########## $1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class $1:
+    def __init__(self):
+        pass
+        $2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># -*- coding: utf-8 -*-
+# __author__ = xiaobao
+# __date__ = $CURRENT_YEAR/$CURRENT_MONTH/$CURRENT_DATE $CURRENT_HOUR:$CURRENT_MINUTE:$CURRENT_SECOND
+# desc: desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fileheader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filelog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>print</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fprint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>print("xjcprint---------------$TM_FILENAME_BASE, {}".format($1))</t>
+  </si>
+  <si>
+    <t>try</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>try</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ftry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>try:
+    pass
+except Exception as e:
+    print e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遍历文件夹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遍历文件夹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fwalk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for szParentPath, listDirName, listFileName in os.walk("F:/temp"):
+    for szDirName in listDirName:
+        szFullPath = os.path.join(szParentPath, szDirName)
+        print(szFullPath)
+    for szFileName in listFileName:
+        szFullPath = os.path.join(szParentPath, szFileName)
+        print(szFullPath)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fleetcodetemplate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># 思路
+# 代码
+class Solution:
+    pass
+# 边界
+solution = Solution()
+assert(solution)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fmain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if __name__ == "__main__":
+    pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单元测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>funittest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>import logging
+import unittest
+class TestXXXX(unittest.TestCase):
+    def setUp(self):
+        logging.getLogger("myLog").debug("TestXXXX setUp:")
+    def test_FileExt(self):
+        self.assertEqual(1, 1)
+    def tearDown(self):
+        logging.getLogger("myLog").debug("TestXXXX tearDown\r\r\r")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fprintobj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>todo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ftodo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// xjctodo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># xjctodo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Debug.Log("xjclog-$TM_FILENAME_BASE"$1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>colorprint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fcolorprint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Debug.Log("&lt;color=blue&gt;xjclog-$TM_FILENAME_BASE&lt;/color&gt;"$1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public class $TM_FILENAME_BASE
+{
+    $1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//########## $1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//################### $1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logging.getLogger("myLog").info("%s", )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>print("\r".join(["%s:%s" % item for item in .__dict__.items()]))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -524,19 +800,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="23.375" customWidth="1"/>
-    <col min="4" max="4" width="20.375" customWidth="1"/>
-    <col min="5" max="5" width="23.75" customWidth="1"/>
-    <col min="6" max="6" width="36.375" customWidth="1"/>
-    <col min="7" max="7" width="39.25" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="64.75" customWidth="1"/>
+    <col min="6" max="6" width="71.375" customWidth="1"/>
+    <col min="7" max="7" width="57.125" customWidth="1"/>
     <col min="8" max="8" width="25.75" customWidth="1"/>
     <col min="9" max="9" width="27.875" customWidth="1"/>
   </cols>
@@ -546,88 +822,88 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
         <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1</v>
+        <v>10001</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
         <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2</v>
+        <v>10002</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
         <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
       </c>
       <c r="G4" t="s">
         <v>6</v>
@@ -635,25 +911,323 @@
     </row>
     <row r="5" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>3</v>
+        <v>10003</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>10004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>10005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>10006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>10007</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="114" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>10008</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10009</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10010</v>
+      </c>
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10011</v>
+      </c>
+      <c r="B13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>10012</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>10013</v>
+      </c>
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>10014</v>
+      </c>
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>10015</v>
+      </c>
+      <c r="B17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>10016</v>
+      </c>
+      <c r="B18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>10017</v>
+      </c>
+      <c r="B19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>10018</v>
+      </c>
+      <c r="B20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>10019</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>20001</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>41</v>
+      <c r="D30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -678,68 +1252,68 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/tool/mul_lan_snippets/config/excel/mul_lan.xlsx
+++ b/tool/mul_lan_snippets/config/excel/mul_lan.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="101">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -164,10 +164,6 @@
 {
         System.Console.WriteLine("Hello World\r");
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>markdown</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -800,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -813,11 +809,10 @@
     <col min="5" max="5" width="64.75" customWidth="1"/>
     <col min="6" max="6" width="71.375" customWidth="1"/>
     <col min="7" max="7" width="57.125" customWidth="1"/>
-    <col min="8" max="8" width="25.75" customWidth="1"/>
-    <col min="9" max="9" width="27.875" customWidth="1"/>
+    <col min="8" max="8" width="27.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -840,13 +835,10 @@
         <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -869,18 +861,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10001</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
@@ -889,18 +881,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10002</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -909,18 +901,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>10003</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>32</v>
@@ -932,206 +924,206 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10004</v>
       </c>
       <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
         <v>45</v>
       </c>
-      <c r="C6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>10005</v>
       </c>
       <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
         <v>47</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>48</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>10006</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
         <v>52</v>
       </c>
-      <c r="D8" t="s">
-        <v>53</v>
-      </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>10007</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="114" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="114" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10008</v>
       </c>
       <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C10" t="s">
+      <c r="G10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10009</v>
       </c>
       <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" t="s">
         <v>62</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>63</v>
       </c>
-      <c r="D11" t="s">
-        <v>64</v>
-      </c>
       <c r="E11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10010</v>
       </c>
       <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" t="s">
         <v>65</v>
       </c>
-      <c r="C12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>66</v>
       </c>
-      <c r="E12" t="s">
-        <v>67</v>
-      </c>
       <c r="F12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10011</v>
       </c>
       <c r="B13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" t="s">
         <v>94</v>
       </c>
-      <c r="C13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>95</v>
       </c>
-      <c r="E13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10012</v>
       </c>
       <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" t="s">
         <v>68</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>69</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>10013</v>
       </c>
       <c r="B15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" t="s">
         <v>72</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>73</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="128.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:8" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>10014</v>
       </c>
       <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" t="s">
         <v>77</v>
       </c>
-      <c r="C16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
@@ -1139,16 +1131,16 @@
         <v>10015</v>
       </c>
       <c r="B17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" t="s">
         <v>80</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>81</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="185.25" x14ac:dyDescent="0.2">
@@ -1156,16 +1148,16 @@
         <v>10016</v>
       </c>
       <c r="B18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" t="s">
         <v>84</v>
       </c>
-      <c r="C18" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E18" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1173,16 +1165,16 @@
         <v>10017</v>
       </c>
       <c r="B19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" t="s">
         <v>87</v>
       </c>
-      <c r="C19" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" t="s">
-        <v>88</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1190,22 +1182,22 @@
         <v>10018</v>
       </c>
       <c r="B20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" t="s">
         <v>89</v>
       </c>
-      <c r="C20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="E20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" t="s">
         <v>90</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F20" t="s">
-        <v>91</v>
-      </c>
       <c r="G20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1218,16 +1210,16 @@
         <v>20001</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D30" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/tool/mul_lan_snippets/config/excel/mul_lan.xlsx
+++ b/tool/mul_lan_snippets/config/excel/mul_lan.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="102">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -278,10 +278,6 @@
 # __author__ = xiaobao
 # __date__ = $CURRENT_YEAR/$CURRENT_MONTH/$CURRENT_DATE $CURRENT_HOUR:$CURRENT_MINUTE:$CURRENT_SECOND
 # desc: desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fileheader</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -468,6 +464,17 @@
   </si>
   <si>
     <t>print("\r".join(["%s:%s" % item for item in .__dict__.items()]))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fileheader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// -*- coding: utf-8 -*-
+// __author__ = xiaobao
+// __date__ = $CURRENT_YEAR/$CURRENT_MONTH/$CURRENT_DATE $CURRENT_HOUR:$CURRENT_MINUTE:$CURRENT_SECOND
+// desc: desc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -798,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -941,7 +948,7 @@
         <v>54</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
@@ -978,7 +985,7 @@
         <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -998,7 +1005,7 @@
         <v>53</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="114" x14ac:dyDescent="0.2">
@@ -1012,13 +1019,13 @@
         <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>59</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1026,16 +1033,16 @@
         <v>10009</v>
       </c>
       <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" t="s">
         <v>61</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>62</v>
       </c>
-      <c r="D11" t="s">
-        <v>63</v>
-      </c>
       <c r="E11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1043,19 +1050,19 @@
         <v>10010</v>
       </c>
       <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
         <v>64</v>
       </c>
-      <c r="C12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>65</v>
       </c>
-      <c r="E12" t="s">
-        <v>66</v>
-      </c>
       <c r="F12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1063,16 +1070,16 @@
         <v>10011</v>
       </c>
       <c r="B13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" t="s">
         <v>93</v>
       </c>
-      <c r="C13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>94</v>
-      </c>
-      <c r="E13" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="57" x14ac:dyDescent="0.2">
@@ -1080,16 +1087,16 @@
         <v>10012</v>
       </c>
       <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" t="s">
         <v>67</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>68</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
@@ -1097,16 +1104,16 @@
         <v>10013</v>
       </c>
       <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" t="s">
         <v>71</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>72</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="128.25" x14ac:dyDescent="0.2">
@@ -1114,16 +1121,16 @@
         <v>10014</v>
       </c>
       <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" t="s">
         <v>76</v>
       </c>
-      <c r="C16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
@@ -1131,16 +1138,16 @@
         <v>10015</v>
       </c>
       <c r="B17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" t="s">
         <v>79</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>80</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="185.25" x14ac:dyDescent="0.2">
@@ -1148,16 +1155,16 @@
         <v>10016</v>
       </c>
       <c r="B18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" t="s">
         <v>83</v>
       </c>
-      <c r="C18" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E18" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1165,16 +1172,16 @@
         <v>10017</v>
       </c>
       <c r="B19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" t="s">
         <v>86</v>
       </c>
-      <c r="C19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" t="s">
-        <v>87</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1182,22 +1189,22 @@
         <v>10018</v>
       </c>
       <c r="B20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" t="s">
         <v>88</v>
       </c>
-      <c r="C20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="E20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" t="s">
         <v>89</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F20" t="s">
-        <v>90</v>
-      </c>
       <c r="G20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
